--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>start</t>
   </si>
@@ -177,85 +177,91 @@
     <t>City</t>
   </si>
   <si>
-    <t>Ayre Caspe</t>
-  </si>
-  <si>
-    <t>2.1794364</t>
-  </si>
-  <si>
-    <t>41.3961119</t>
-  </si>
-  <si>
-    <t>Carrer de Casp, 103, 08013 Barcelona</t>
+    <t>Hotel Iberostar</t>
+  </si>
+  <si>
+    <t>2.169767</t>
+  </si>
+  <si>
+    <t>41.388111</t>
+  </si>
+  <si>
+    <t>Pg. de Gràcia - Gran Via Corts Catalanes, Passeig de Gràcia (laterals), 08007 Barcelona, España</t>
   </si>
   <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t xml:space="preserve">Olivia Plaza </t>
-  </si>
-  <si>
-    <t>2.1700678</t>
-  </si>
-  <si>
-    <t>41.3868794</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plaça de Catalunya, 19, 08002 Barcelona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalonia Sagrada Familia </t>
-  </si>
-  <si>
-    <t>2.1744103</t>
-  </si>
-  <si>
-    <t>41.4034789</t>
-  </si>
-  <si>
-    <t>Carrer d'Aragó, 577, 579, 08026 Barcelona</t>
-  </si>
-  <si>
-    <t>2.159</t>
-  </si>
-  <si>
-    <t>41.3888</t>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t>2.161392</t>
+  </si>
+  <si>
+    <t>41.391017</t>
+  </si>
+  <si>
+    <t>Calle de Valencia, 246, Barcelona</t>
+  </si>
+  <si>
+    <t>Alba Granados</t>
+  </si>
+  <si>
+    <t>2.158986</t>
+  </si>
+  <si>
+    <t>41.390474</t>
+  </si>
+  <si>
+    <t>Carrer d’Enric Granados, 34, Barcelona</t>
+  </si>
+  <si>
+    <t>Flamant</t>
+  </si>
+  <si>
+    <t>2.161352</t>
+  </si>
+  <si>
+    <t>41.388484</t>
   </si>
   <si>
     <t>Rambla de Canaletes, 133, 08002 Barcelona</t>
   </si>
   <si>
-    <t>2.1704199</t>
-  </si>
-  <si>
-    <t>41.3892981</t>
-  </si>
-  <si>
-    <t>Carrer de Casp, 17, 08010 Barcelona</t>
-  </si>
-  <si>
-    <t>Rusc De turisme</t>
-  </si>
-  <si>
-    <t>2.1737456</t>
-  </si>
-  <si>
-    <t>41.385738</t>
-  </si>
-  <si>
-    <t>Carrer de Montsió, 10, 08002 Barcelona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castell Montjuic </t>
-  </si>
-  <si>
-    <t>2.1660100000000284</t>
-  </si>
-  <si>
-    <t>41.3634</t>
-  </si>
-  <si>
-    <t>Montjuïc Castle, Barcelona, Catalunya, Spain</t>
+    <t>Julivert Meu</t>
+  </si>
+  <si>
+    <t>2.170208</t>
+  </si>
+  <si>
+    <t>41.384318</t>
+  </si>
+  <si>
+    <t>Carrer del Bonsuccés, 12</t>
+  </si>
+  <si>
+    <t>Xalet de Montjuic</t>
+  </si>
+  <si>
+    <t>2.164152</t>
+  </si>
+  <si>
+    <t>41.368951</t>
+  </si>
+  <si>
+    <t>Avinguda Miramar, 9998</t>
+  </si>
+  <si>
+    <t>Mirabé</t>
+  </si>
+  <si>
+    <t>2.132079</t>
+  </si>
+  <si>
+    <t>41.416183</t>
+  </si>
+  <si>
+    <t>Carrer Manuel Arnús, 2, Barcelona</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="14"/>
@@ -301,12 +307,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -316,16 +322,115 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -335,59 +440,77 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="16" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -407,8 +530,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff222222"/>
       <rgbColor rgb="ff333333"/>
     </indexedColors>
@@ -459,14 +582,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -609,17 +732,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -647,10 +770,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -898,12 +1021,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1190,7 +1313,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1218,10 +1341,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1472,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1481,13 +1604,16 @@
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6719" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
     <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1496,30 +1622,30 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>43609.375</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
@@ -1528,100 +1654,118 @@
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>43609.458333333336</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" t="s" s="5">
+      <c r="G4" t="s" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>43609.5625</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="G5" t="s" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>43609.625</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" t="s" s="5">
+      <c r="G6" t="s" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>43609.833333333336</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" t="s" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>43610.375</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1634,14 +1778,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.3047" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.6719" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.8828" style="8" customWidth="1"/>
-    <col min="7" max="8" width="8.85156" style="8" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.3516" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="11" customWidth="1"/>
+    <col min="4" max="4" width="25.6719" style="11" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="46.8516" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="11" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1656,507 +1801,507 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>43609</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="10">
+      <c r="F3" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="2">
         <v>176</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <f>G3*E3</f>
         <v>2992</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>43609</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" t="s" s="3">
         <v>21</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>17</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <v>1.21</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="14">
         <f>G4*E4</f>
         <v>20.57</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>43609</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" t="s" s="3">
         <v>25</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>228</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <f>G5*E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>43609</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" t="s" s="3">
         <v>21</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" t="s" s="10">
+      <c r="F6" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>1.21</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="14">
         <f>G6*E6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>43609</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" t="s" s="3">
         <v>26</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" t="s" s="10">
+      <c r="F7" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <v>120</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="14">
         <f>G7*E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="9">
+      <c r="B8" s="12">
         <v>43609</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" t="s" s="3">
         <v>21</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="10">
+      <c r="F8" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>1.21</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="14">
         <f>G8*E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>43609</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" t="s" s="3">
         <v>27</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" t="s" s="10">
+      <c r="F9" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="2">
         <v>190</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="14">
         <f>G9*E9</f>
         <v>190</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="10">
+      <c r="F10" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <v>1.5</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
         <f>G10*E10</f>
         <v>25.5</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <v>43609</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>17</v>
       </c>
-      <c r="F11" t="s" s="10">
+      <c r="F11" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="2">
         <v>39.5</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <f>G11*E11</f>
         <v>671.5</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>43609</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="F12" t="s" s="10">
+      <c r="F12" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2">
         <v>4.5</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="14">
         <f>G12*E12</f>
         <v>76.5</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="9">
+      <c r="B13" s="12">
         <v>43609</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
         <v>17</v>
       </c>
-      <c r="F13" t="s" s="10">
+      <c r="F13" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="2">
         <v>10.5</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="14">
         <f>G13*E13</f>
         <v>178.5</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="9">
+      <c r="B14" s="12">
         <v>43609</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>17</v>
       </c>
-      <c r="F14" t="s" s="10">
+      <c r="F14" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="2">
         <f>26/0.8</f>
         <v>32.5</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="14">
         <f>G14*E14</f>
         <v>552.5</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="9">
+      <c r="B15" s="12">
         <v>43609</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <v>17</v>
       </c>
-      <c r="F15" t="s" s="10">
+      <c r="F15" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="2">
         <v>63</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="14">
         <f>G15*E15</f>
         <v>1071</v>
       </c>
     </row>
     <row r="16" ht="29" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="9">
+      <c r="B16" s="12">
         <v>43609</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>17</v>
       </c>
-      <c r="F16" t="s" s="10">
+      <c r="F16" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <v>34</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="14">
         <f>G16*E16</f>
         <v>578</v>
       </c>
     </row>
     <row r="17" ht="29" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <v>43610</v>
       </c>
-      <c r="C17" t="s" s="5">
+      <c r="C17" t="s" s="3">
         <v>41</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" t="s" s="10">
+      <c r="F17" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="2">
         <f>(456*1.1)/0.8</f>
         <v>627</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="14">
         <f>G17*E17</f>
         <v>627</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>17</v>
       </c>
-      <c r="F18" t="s" s="10">
+      <c r="F18" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="2">
         <v>1.5</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="14">
         <f>G18*E18</f>
         <v>25.5</v>
       </c>
     </row>
     <row r="19" ht="29" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="9">
+      <c r="B19" s="12">
         <v>43610</v>
       </c>
-      <c r="C19" t="s" s="5">
+      <c r="C19" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D19" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
         <v>17</v>
       </c>
-      <c r="F19" t="s" s="10">
+      <c r="F19" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="2">
         <v>69</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="14">
         <f>G19*E19</f>
         <v>1173</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="9">
+      <c r="B20" s="12">
         <v>43610</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <v>17</v>
       </c>
-      <c r="F20" t="s" s="10">
+      <c r="F20" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="2">
         <v>12</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="14">
         <f>G20*E20</f>
         <v>204</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="9">
+      <c r="B21" s="12">
         <v>43610</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <v>17</v>
       </c>
-      <c r="F21" t="s" s="10">
+      <c r="F21" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="2">
         <v>90</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="14">
         <f>G21*E21</f>
         <v>1530</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>47</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="11">
+      <c r="H22" s="14">
         <f>SUM(H3:H21)</f>
         <v>9915.57</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
@@ -2164,26 +2309,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.1719" style="15" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="15" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.1719" style="18" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="18" customWidth="1"/>
+    <col min="8" max="256" width="8.85156" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -2197,167 +2343,186 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" t="s" s="19">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s" s="5">
+      <c r="B4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="F4" t="s" s="17">
+      <c r="F4" t="s" s="20">
         <v>62</v>
       </c>
-      <c r="G4" t="s" s="5">
+      <c r="G4" t="s" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s" s="5">
+      <c r="B5" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" t="s" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="C6" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="5">
+      <c r="C6" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="D6" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="E6" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="F6" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" t="s" s="5">
+      <c r="B7" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="C7" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s" s="5">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s" s="5">
+      <c r="C7" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="D7" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="E7" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s" s="5">
+      <c r="B8" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>75</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="D8" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="E8" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s" s="5">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s" s="5">
+      <c r="B9" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="D9" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="E9" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>